--- a/pacientes.xlsx
+++ b/pacientes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,72 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Lian Mendes</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21983758222</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Barra da Tijuca</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Marcia Mendes</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21983748222</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Rua Benjamin de Magalhães, 105</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Larissa Prado</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21983418222</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Rua Glaziou, 10</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
